--- a/Jogos_do_Dia/2022-12-24_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-24_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -704,10 +704,10 @@
         <v>3.84</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF2" t="n">
         <v>1.55</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.77</v>
+        <v>2.88</v>
       </c>
       <c r="G5" t="n">
-        <v>3.21</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="I5" t="n">
         <v>1.08</v>
@@ -983,10 +983,10 @@
         <v>2.75</v>
       </c>
       <c r="M5" t="n">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="N5" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1034,7 +1034,7 @@
         <v>2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE5" t="n">
         <v>1.24</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="G6" t="n">
-        <v>2.94</v>
+        <v>2.95</v>
       </c>
       <c r="H6" t="n">
-        <v>2.89</v>
+        <v>2.8</v>
       </c>
       <c r="I6" t="n">
         <v>1.05</v>
@@ -1093,10 +1093,10 @@
         <v>2.84</v>
       </c>
       <c r="M6" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="N6" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="O6" t="n">
         <v>1.49</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="G7" t="n">
-        <v>3.47</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.34</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
         <v>1.03</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.93</v>
+        <v>3.1</v>
       </c>
       <c r="G8" t="n">
-        <v>3.72</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.39</v>
+        <v>2.25</v>
       </c>
       <c r="I8" t="n">
         <v>1.06</v>
@@ -1313,10 +1313,10 @@
         <v>3.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="N8" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="G9" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>1.08</v>
@@ -1515,10 +1515,10 @@
         <v>2.5</v>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="H10" t="n">
-        <v>2.87</v>
+        <v>3.45</v>
       </c>
       <c r="I10" t="n">
         <v>1.12</v>
@@ -1575,28 +1575,28 @@
         <v>2.84</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G11" t="n">
         <v>2.6</v>
       </c>
-      <c r="G11" t="n">
-        <v>2.65</v>
-      </c>
       <c r="H11" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="I11" t="n">
         <v>1.13</v>
@@ -1637,10 +1637,10 @@
         <v>4.74</v>
       </c>
       <c r="K11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="L11" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="M11" t="n">
         <v>2.91</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
-        <v>2.51</v>
+        <v>2.45</v>
       </c>
       <c r="I12" t="n">
         <v>1.05</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="G13" t="n">
-        <v>3.14</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
-        <v>4.05</v>
+        <v>4.7</v>
       </c>
       <c r="I13" t="n">
         <v>1.04</v>
@@ -1863,10 +1863,10 @@
         <v>2.6</v>
       </c>
       <c r="M13" t="n">
-        <v>2.24</v>
+        <v>2.35</v>
       </c>
       <c r="N13" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="O13" t="n">
         <v>1.49</v>
@@ -1905,28 +1905,28 @@
         <v>2.58</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2022-12-24_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-24_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="G2" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -653,10 +653,10 @@
         <v>4.7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="N2" t="n">
-        <v>2.03</v>
+        <v>2.43</v>
       </c>
       <c r="O2" t="n">
         <v>1.29</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>3.74</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -763,10 +763,10 @@
         <v>3.8</v>
       </c>
       <c r="M3" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="N3" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="H4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -873,10 +873,10 @@
         <v>5.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="N4" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="O4" t="n">
         <v>1.2</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="H5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="I5" t="n">
         <v>1.08</v>
@@ -983,10 +983,10 @@
         <v>2.75</v>
       </c>
       <c r="M5" t="n">
-        <v>2.08</v>
+        <v>2.11</v>
       </c>
       <c r="N5" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="G6" t="n">
-        <v>2.95</v>
+        <v>3.03</v>
       </c>
       <c r="H6" t="n">
-        <v>2.8</v>
+        <v>3.03</v>
       </c>
       <c r="I6" t="n">
         <v>1.05</v>
@@ -1093,10 +1093,10 @@
         <v>2.84</v>
       </c>
       <c r="M6" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="N6" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="O6" t="n">
         <v>1.49</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>3.49</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>3.09</v>
       </c>
       <c r="I7" t="n">
         <v>1.03</v>
@@ -1203,10 +1203,10 @@
         <v>3.82</v>
       </c>
       <c r="M7" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="N7" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.1</v>
+        <v>3.57</v>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>3.23</v>
       </c>
       <c r="H8" t="n">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="I8" t="n">
         <v>1.06</v>
@@ -1313,10 +1313,10 @@
         <v>3.4</v>
       </c>
       <c r="M8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="N8" t="n">
         <v>1.91</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.95</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1364,7 +1364,7 @@
         <v>1.97</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE8" t="n">
         <v>1.3</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I9" t="n">
         <v>1.08</v>
@@ -1423,10 +1423,10 @@
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="N9" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="G10" t="n">
-        <v>2.45</v>
+        <v>2.58</v>
       </c>
       <c r="H10" t="n">
-        <v>3.45</v>
+        <v>2.94</v>
       </c>
       <c r="I10" t="n">
         <v>1.12</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="G11" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H11" t="n">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="I11" t="n">
         <v>1.13</v>
@@ -1637,10 +1637,10 @@
         <v>4.74</v>
       </c>
       <c r="K11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="L11" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="M11" t="n">
         <v>2.91</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AF11" t="n">
         <v>0</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>3.48</v>
       </c>
       <c r="H12" t="n">
-        <v>2.45</v>
+        <v>2.43</v>
       </c>
       <c r="I12" t="n">
         <v>1.05</v>
@@ -1753,10 +1753,10 @@
         <v>3.82</v>
       </c>
       <c r="M12" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="N12" t="n">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="O12" t="n">
         <v>1.33</v>
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G13" t="n">
         <v>3.1</v>
@@ -1863,10 +1863,10 @@
         <v>2.6</v>
       </c>
       <c r="M13" t="n">
-        <v>2.35</v>
+        <v>2.29</v>
       </c>
       <c r="N13" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="O13" t="n">
         <v>1.49</v>
